--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF8827-AF24-43FF-8F43-A1DE14221AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCEEA2B-9C36-4BAE-944F-9E74B0BEC2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Stage</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage0-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage0-1.unity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,9 +459,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,24 +475,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -558,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -571,8 +583,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -581,6 +593,32 @@
         <v>20</v>
       </c>
       <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>20</v>
       </c>
     </row>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCEEA2B-9C36-4BAE-944F-9E74B0BEC2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263EBF9-87F8-431A-8C58-B1B9C56977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Stage</t>
   </si>
@@ -58,6 +58,9 @@
     <t>commandTime</t>
   </si>
   <si>
+    <t>stageTime</t>
+  </si>
+  <si>
     <t>横向格子数</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>每个指令时长</t>
   </si>
   <si>
+    <t>关卡的时间上限</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -88,51 +94,36 @@
     <t>Dictionary&lt;int,int&gt;</t>
   </si>
   <si>
+    <t>Stage0-1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage0-1.unity</t>
+  </si>
+  <si>
+    <t>0:10,1:8,2:8,3:8,4:5</t>
+  </si>
+  <si>
+    <t>0:1,1:1,2:1,3:1,4:2</t>
+  </si>
+  <si>
+    <t>Stage0-0</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage0-0.unity</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>StageTest</t>
-  </si>
-  <si>
-    <t>0:10,1:8,2:8,3:8,4:5</t>
-  </si>
-  <si>
-    <t>0:1,1:1,2:1,3:1,4:2</t>
-  </si>
-  <si>
-    <t>stageTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡的时间上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage0-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage0-1.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,10 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,15 +449,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -475,24 +465,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -511,119 +501,145 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
+      <c r="H1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263EBF9-87F8-431A-8C58-B1B9C56977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218653B-D7C4-4851-9327-64DDC3E54A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Stage</t>
   </si>
@@ -94,10 +94,7 @@
     <t>Dictionary&lt;int,int&gt;</t>
   </si>
   <si>
-    <t>Stage0-1</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage0-1.unity</t>
+    <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
   </si>
   <si>
     <t>0:10,1:8,2:8,3:8,4:5</t>
@@ -106,17 +103,80 @@
     <t>0:1,1:1,2:1,3:1,4:2</t>
   </si>
   <si>
-    <t>Stage0-0</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage0-0.unity</t>
+    <t>Stage1-2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
+  </si>
+  <si>
+    <t>Stage1-3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-3.unity</t>
+  </si>
+  <si>
+    <t>Stage1-4</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-4.unity</t>
+  </si>
+  <si>
+    <t>Stage1-5</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-5.unity</t>
+  </si>
+  <si>
+    <t>Stage1-6</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-6.unity</t>
+  </si>
+  <si>
+    <t>Stage1-7</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-7.unity</t>
+  </si>
+  <si>
+    <t>Stage1-8</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-8.unity</t>
+  </si>
+  <si>
+    <t>Stage1-9</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-9.unity</t>
+  </si>
+  <si>
+    <t>Stage1-10</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
+  </si>
+  <si>
+    <t>Stage1-11</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
+  </si>
+  <si>
+    <t>Stage1-12</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
+  </si>
+  <si>
+    <t>StageTest</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageTest</t>
+  </si>
+  <si>
+    <t>Stage1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -132,15 +192,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -169,7 +229,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,15 +509,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -465,24 +525,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -560,86 +620,346 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218653B-D7C4-4851-9327-64DDC3E54A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589FD47-3699-4D5A-814D-356B5A72796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Stage</t>
   </si>
@@ -94,88 +94,186 @@
     <t>Dictionary&lt;int,int&gt;</t>
   </si>
   <si>
+    <t>0:10,1:8,2:8,3:8,4:5</t>
+  </si>
+  <si>
+    <t>0:1,1:1,2:1,3:1,4:2</t>
+  </si>
+  <si>
+    <t>Stage1-2</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
+  </si>
+  <si>
+    <t>Stage1-3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-3.unity</t>
+  </si>
+  <si>
+    <t>Stage1-4</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-4.unity</t>
+  </si>
+  <si>
+    <t>Stage1-5</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-5.unity</t>
+  </si>
+  <si>
+    <t>Stage1-6</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-6.unity</t>
+  </si>
+  <si>
+    <t>Stage1-7</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-7.unity</t>
+  </si>
+  <si>
+    <t>Stage1-8</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-8.unity</t>
+  </si>
+  <si>
+    <t>Stage1-9</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-9.unity</t>
+  </si>
+  <si>
+    <t>Stage1-10</t>
+  </si>
+  <si>
+    <t>Stage1-11</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
+  </si>
+  <si>
+    <t>Stage1-12</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
+  </si>
+  <si>
+    <t>StageTest</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
+  </si>
+  <si>
+    <t>Stage1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
-  </si>
-  <si>
-    <t>0:10,1:8,2:8,3:8,4:5</t>
-  </si>
-  <si>
-    <t>0:1,1:1,2:1,3:1,4:2</t>
-  </si>
-  <si>
-    <t>Stage1-2</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
-  </si>
-  <si>
-    <t>Stage1-3</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-3.unity</t>
-  </si>
-  <si>
-    <t>Stage1-4</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-4.unity</t>
-  </si>
-  <si>
-    <t>Stage1-5</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-5.unity</t>
-  </si>
-  <si>
-    <t>Stage1-6</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-6.unity</t>
-  </si>
-  <si>
-    <t>Stage1-7</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-7.unity</t>
-  </si>
-  <si>
-    <t>Stage1-8</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-8.unity</t>
-  </si>
-  <si>
-    <t>Stage1-9</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-9.unity</t>
-  </si>
-  <si>
-    <t>Stage1-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
-  </si>
-  <si>
-    <t>Stage1-11</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
-  </si>
-  <si>
-    <t>Stage1-12</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
-  </si>
-  <si>
-    <t>StageTest</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
-  </si>
-  <si>
-    <t>Stage1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-1.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-3.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-4.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-5.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-6.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-7.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-8.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-9.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-10.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-11.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-12.unity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,9 +607,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,24 +623,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -620,64 +718,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="B6">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -686,125 +784,125 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -816,145 +914,457 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28">
         <v>20</v>
       </c>
     </row>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589FD47-3699-4D5A-814D-356B5A72796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DCB4A0-2EE1-4D5B-A6E1-36258E50DE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Stage</t>
   </si>
@@ -100,180 +100,236 @@
     <t>0:1,1:1,2:1,3:1,4:2</t>
   </si>
   <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
+  </si>
+  <si>
+    <t>Stage1-3</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-3.unity</t>
+  </si>
+  <si>
+    <t>Stage1-4</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-4.unity</t>
+  </si>
+  <si>
+    <t>Stage1-5</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-5.unity</t>
+  </si>
+  <si>
+    <t>Stage1-6</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-6.unity</t>
+  </si>
+  <si>
+    <t>Stage1-7</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-7.unity</t>
+  </si>
+  <si>
+    <t>Stage1-8</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-8.unity</t>
+  </si>
+  <si>
+    <t>Stage1-9</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-9.unity</t>
+  </si>
+  <si>
+    <t>Stage1-10</t>
+  </si>
+  <si>
+    <t>Stage1-11</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
+  </si>
+  <si>
+    <t>Stage1-12</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
+  </si>
+  <si>
+    <t>StageTest</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
+  </si>
+  <si>
+    <t>Stage1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-1.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-3.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-4.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-5.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-6.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-7.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-8.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-9.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-10.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-11.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-12.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextStageName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Stage1-2</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一关的key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage1-1</t>
   </si>
   <si>
     <t>Stage1-3</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-3.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-4</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-4.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-5</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-5.unity</t>
-  </si>
-  <si>
-    <t>Stage1-6</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-6.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-7</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-7.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-8</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-8.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-9</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-9.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-11</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stage1-12</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
-  </si>
-  <si>
-    <t>StageTest</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
-  </si>
-  <si>
-    <t>Stage1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-1.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-3.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-4.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-5.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-6.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-7.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-8.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-9.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-10.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-11.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-12.unity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,7 +696,7 @@
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -665,8 +721,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -691,8 +750,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -717,36 +779,42 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -758,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -769,10 +837,13 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -784,21 +855,24 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -810,21 +884,24 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -836,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -847,10 +924,13 @@
       <c r="H8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -862,21 +942,24 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -888,21 +971,24 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -914,21 +1000,24 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -940,125 +1029,140 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1070,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1081,10 +1185,13 @@
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1096,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1107,10 +1214,13 @@
       <c r="H18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1122,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1133,10 +1243,13 @@
       <c r="H19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1148,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -1159,10 +1272,13 @@
       <c r="H20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1174,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -1185,10 +1301,13 @@
       <c r="H21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1200,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1211,10 +1330,13 @@
       <c r="H22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1226,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1237,10 +1359,13 @@
       <c r="H23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1252,112 +1377,124 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
@@ -1366,6 +1503,9 @@
       </c>
       <c r="H28">
         <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DCB4A0-2EE1-4D5B-A6E1-36258E50DE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -25,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Stage</t>
   </si>
@@ -61,6 +57,9 @@
     <t>stageTime</t>
   </si>
   <si>
+    <t>nextStageName</t>
+  </si>
+  <si>
     <t>横向格子数</t>
   </si>
   <si>
@@ -82,6 +81,9 @@
     <t>关卡的时间上限</t>
   </si>
   <si>
+    <t>下一关的key</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -94,12 +96,27 @@
     <t>Dictionary&lt;int,int&gt;</t>
   </si>
   <si>
+    <t>StageTest</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
+  </si>
+  <si>
     <t>0:10,1:8,2:8,3:8,4:5</t>
   </si>
   <si>
     <t>0:1,1:1,2:1,3:1,4:2</t>
   </si>
   <si>
+    <t>Stage1-1</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
+  </si>
+  <si>
+    <t>Stage1-2</t>
+  </si>
+  <si>
     <t>Assets/AddressableAssets/Scene/Stage1-2.unity</t>
   </si>
   <si>
@@ -148,6 +165,9 @@
     <t>Stage1-10</t>
   </si>
   <si>
+    <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
+  </si>
+  <si>
     <t>Stage1-11</t>
   </si>
   <si>
@@ -160,184 +180,89 @@
     <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
   </si>
   <si>
-    <t>StageTest</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/StageTest.unity</t>
-  </si>
-  <si>
-    <t>Stage1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Stage2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-1.unity</t>
   </si>
   <si>
     <t>Stage2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
   </si>
   <si>
     <t>Stage2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-3.unity</t>
   </si>
   <si>
     <t>Stage2-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-4.unity</t>
   </si>
   <si>
     <t>Stage2-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-5.unity</t>
   </si>
   <si>
     <t>Stage2-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-6.unity</t>
   </si>
   <si>
     <t>Stage2-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-7.unity</t>
   </si>
   <si>
     <t>Stage2-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-8.unity</t>
   </si>
   <si>
     <t>Stage2-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-9.unity</t>
   </si>
   <si>
     <t>Stage2-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-10.unity</t>
   </si>
   <si>
     <t>Stage2-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Stage2-11.unity</t>
   </si>
   <si>
     <t>Stage2-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-1.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-3.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-4.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-5.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-6.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-7.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-8.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-9.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-10.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage2-11.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/Stage2-12.unity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextStageName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一关的key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-1</t>
-  </si>
-  <si>
-    <t>Stage1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage1-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,27 +274,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -377,25 +624,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,39 +1186,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -696,7 +1232,7 @@
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -722,70 +1258,70 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -797,24 +1333,24 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -826,27 +1362,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -855,24 +1391,24 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -884,24 +1420,24 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -913,24 +1449,24 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -942,24 +1478,24 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -971,24 +1507,24 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1000,24 +1536,24 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1029,24 +1565,24 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1058,24 +1594,24 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H13">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1087,24 +1623,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1116,24 +1652,24 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1145,24 +1681,24 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1174,24 +1710,24 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1203,24 +1739,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1232,24 +1768,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1261,24 +1797,24 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1290,24 +1826,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1319,24 +1855,24 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H22">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1348,24 +1884,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1377,24 +1913,24 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1409,21 +1945,21 @@
         <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H25">
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1435,24 +1971,24 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1464,24 +2000,24 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H27">
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1493,24 +2029,24 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H28">
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -262,14 +262,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,139 +733,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1218,7 +1211,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1382,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1574,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
@@ -1585,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1603,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>44</v>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1596,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>44</v>
@@ -1694,10 +1694,10 @@
         <v>50</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>52</v>
@@ -1723,10 +1723,10 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>54</v>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="76">
   <si>
     <t>Stage</t>
   </si>
@@ -60,6 +60,12 @@
     <t>nextStageName</t>
   </si>
   <si>
+    <t>stageBgm</t>
+  </si>
+  <si>
+    <t>stageCamera</t>
+  </si>
+  <si>
     <t>横向格子数</t>
   </si>
   <si>
@@ -84,6 +90,12 @@
     <t>下一关的key</t>
   </si>
   <si>
+    <t>关卡bgm</t>
+  </si>
+  <si>
+    <t>关卡摄像机</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
     <t>Stage1-1</t>
   </si>
   <si>
+    <t>Rank1</t>
+  </si>
+  <si>
     <t>Assets/AddressableAssets/Scene/Stage1-1.unity</t>
   </si>
   <si>
@@ -168,18 +183,6 @@
     <t>Assets/AddressableAssets/Scene/Stage1-10.unity</t>
   </si>
   <si>
-    <t>Stage1-11</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-11.unity</t>
-  </si>
-  <si>
-    <t>Stage1-12</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Scene/Stage1-12.unity</t>
-  </si>
-  <si>
     <t>Stage2-1</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>Stage2-2</t>
+  </si>
+  <si>
+    <t>Rank2</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/Stage2-2.unity</t>
@@ -262,7 +268,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,139 +746,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1208,10 +1221,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1225,7 +1238,7 @@
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1250,71 +1263,89 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1326,24 +1357,30 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1354,25 +1391,31 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1384,24 +1427,30 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1413,24 +1462,30 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1442,24 +1497,30 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1471,24 +1532,30 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1500,24 +1567,30 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1529,24 +1602,30 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1558,24 +1637,30 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1587,24 +1672,30 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>16</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1615,289 +1706,349 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>46</v>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
         <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1905,25 +2056,31 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
+      <c r="E24" t="s">
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>72</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1934,107 +2091,61 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
+      <c r="E25" t="s">
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>69</v>
+      <c r="E26" t="s">
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -268,14 +268,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,139 +739,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,7 +1217,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1716,7 +1709,7 @@
         <v>29</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
@@ -1821,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
         <v>58</v>
@@ -1856,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
         <v>60</v>
@@ -2066,7 +2059,7 @@
         <v>29</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
         <v>72</v>
@@ -2101,7 +2094,7 @@
         <v>29</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>74</v>
@@ -2118,10 +2111,10 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2136,7 +2129,7 @@
         <v>29</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
         <v>30</v>

--- a/RabiConfig/xlsx/Stage.xlsx
+++ b/RabiConfig/xlsx/Stage.xlsx
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1429,7 +1429,7 @@
         <v>29</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
